--- a/Assets/StaticData/Excel/String.xlsx
+++ b/Assets/StaticData/Excel/String.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="String" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -31,20 +29,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>만든 이:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">
 10000</t>
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -55,15 +45,17 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">~ NPC </t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve"> ~ NPC</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -75,6 +67,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -84,6 +77,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -94,15 +88,17 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>~ Quest</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve"> ~ Quest</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -114,6 +110,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -123,6 +120,7 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -133,15 +131,17 @@
         </r>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">~ Quest </t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve"> ~ Quest</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -159,6 +159,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,31 +175,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 라이덴이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못 보던 얼굴이군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥터에서 사라진 주민이 있다. 조심해라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변에 몬스터가 많아져서 걱정이다. 잡아줄 수 있나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류별로 한 마리만 잡아줘도 고맙겠군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자 사냥터에서 몬스터를 한 마리씩 사냥</t>
+    <t>안녕, 이 마을은 처음이지 어서와.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥터에서 사라진 주민이 있다고 하던데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">행색을 보니 우리 마을 사람은 아니구나? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 주변에 몬스터의 출몰이 잦아져서 마을 사람들이 걱정이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 괜찮다면 근처 사냥터의 몬스터들을 소탕해주지 않을래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자 사냥터에서 몬스터를 종류별로 1마리씩 잡아라.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -226,12 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -564,29 +559,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,30 +638,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>